--- a/xyz/iita_rawad.xlsx
+++ b/xyz/iita_rawad.xlsx
@@ -23,10 +23,45 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Rowad</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>IITA + 1k</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +89,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,134 +377,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3">
         <v>21000</v>
       </c>
-      <c r="B1">
-        <f>A1*0.02</f>
+      <c r="C3">
+        <f>B3*C$1</f>
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>A1+B1</f>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>2005</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B17" si="0">B3+C3</f>
         <v>21420</v>
       </c>
-      <c r="B2">
-        <f>A2*0.02</f>
+      <c r="C4">
+        <f t="shared" ref="C4:C17" si="1">B4*C$1</f>
         <v>428.40000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+B2</f>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:A17" si="2">A4+1</f>
+        <v>2006</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
         <v>21848.400000000001</v>
       </c>
-      <c r="B3">
-        <f>A3*0.02</f>
+      <c r="C5">
+        <f t="shared" si="1"/>
         <v>436.96800000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>A3+B3</f>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
         <v>22285.368000000002</v>
       </c>
-      <c r="B4">
-        <f>A4*0.02</f>
+      <c r="C6">
+        <f t="shared" si="1"/>
         <v>445.70736000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>A4+B4</f>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
         <v>22731.075360000003</v>
       </c>
-      <c r="B5">
-        <f>A5*0.02</f>
+      <c r="C7">
+        <f t="shared" si="1"/>
         <v>454.62150720000005</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>A5+B5</f>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
         <v>23185.696867200004</v>
       </c>
-      <c r="B6">
-        <f>A6*0.02</f>
+      <c r="C8">
+        <f t="shared" si="1"/>
         <v>463.7139373440001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f>A6+B6</f>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>2010</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
         <v>23649.410804544004</v>
       </c>
-      <c r="B7">
-        <f>A7*0.02</f>
+      <c r="C9">
+        <f t="shared" si="1"/>
         <v>472.98821609088009</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>A7+B7</f>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
         <v>24122.399020634883</v>
       </c>
-      <c r="B8">
-        <f>A8*0.02</f>
+      <c r="C10">
+        <f t="shared" si="1"/>
         <v>482.44798041269769</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>A8+B8</f>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
         <v>24604.847001047579</v>
       </c>
-      <c r="B9">
-        <f>A9*0.02</f>
+      <c r="C11">
+        <f t="shared" si="1"/>
         <v>492.09694002095159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>A9+B9</f>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
         <v>25096.94394106853</v>
       </c>
-      <c r="B10">
-        <f>A10*0.02</f>
+      <c r="C12">
+        <f t="shared" si="1"/>
         <v>501.93887882137062</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>A10+B10</f>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
         <v>25598.882819889899</v>
       </c>
-      <c r="B11">
-        <f>A11*0.02</f>
+      <c r="C13">
+        <f t="shared" si="1"/>
         <v>511.977656397798</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>A11+B11</f>
+      <c r="D13">
+        <v>7000</v>
+      </c>
+      <c r="E13">
+        <f>D13*C$1</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
         <v>26110.860476287697</v>
       </c>
-      <c r="B12">
-        <f>A12*0.02</f>
+      <c r="C14">
+        <f t="shared" si="1"/>
         <v>522.2172095257539</v>
       </c>
+      <c r="D14">
+        <f>D13+E13</f>
+        <v>7140</v>
+      </c>
+      <c r="E14">
+        <f>D14*C$1</f>
+        <v>142.80000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>26633.077685813452</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>532.66155371626905</v>
+      </c>
+      <c r="D15">
+        <f>D14+E14</f>
+        <v>7282.8</v>
+      </c>
+      <c r="E15">
+        <f>D15*C$1</f>
+        <v>145.65600000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>27165.739239529721</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>543.31478479059444</v>
+      </c>
+      <c r="D16">
+        <f>D15+E15</f>
+        <v>7428.4560000000001</v>
+      </c>
+      <c r="E16">
+        <f>D16*C$1</f>
+        <v>148.56912</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>27709.054024320314</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>554.18108048640624</v>
+      </c>
+      <c r="D17" s="4">
+        <f>D16+E16</f>
+        <v>7577.0251200000002</v>
+      </c>
+      <c r="E17">
+        <f>D17*C$1</f>
+        <v>151.54050240000001</v>
+      </c>
+      <c r="F17" s="4">
+        <f>SUM(B17,D17)</f>
+        <v>35286.079144320312</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>